--- a/task11/data/depression_matrix_a_0.xlsx
+++ b/task11/data/depression_matrix_a_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmz19\Desktop\Mental Health\task\task10\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmz19\Desktop\YuKi's Projects\Mental Health\task\task11\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,10 +89,6 @@
     <t>PHQ-9</t>
   </si>
   <si>
-    <t>HAHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KADS-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +399,10 @@
   </si>
   <si>
     <t>QRBRAHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -816,31 +816,31 @@
         <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1">
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="AA69" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AA71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="AA72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AA73" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AA74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AA75" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="AA76" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="AA80" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="AA81" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AA84" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="AA85" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AA86" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AA87" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="AA90" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="AA95" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
